--- a/data/db_source/doc_folder.xlsx
+++ b/data/db_source/doc_folder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B9AD1-2423-8548-B846-DDD994FF27EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0112417-6C06-CA4A-9A10-649A4194A210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12380" yWindow="500" windowWidth="16420" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>folder_id</t>
   </si>
@@ -28,10 +28,25 @@
     <t>folder_1_md</t>
   </si>
   <si>
-    <t>folder_1</t>
-  </si>
-  <si>
     <t>doc_id</t>
+  </si>
+  <si>
+    <t>10-tourisme</t>
+  </si>
+  <si>
+    <t>bevnat</t>
+  </si>
+  <si>
+    <t>bevnat_info</t>
+  </si>
+  <si>
+    <t>bevnat_variable</t>
+  </si>
+  <si>
+    <t>statpop</t>
+  </si>
+  <si>
+    <t>statpop_info</t>
   </si>
 </sst>
 </file>
@@ -87,8 +102,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D411DE4-F6CC-B34F-83DD-A8AB904C9840}" name="Tableau1" displayName="Tableau1" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{9D411DE4-F6CC-B34F-83DD-A8AB904C9840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D411DE4-F6CC-B34F-83DD-A8AB904C9840}" name="Tableau1" displayName="Tableau1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{9D411DE4-F6CC-B34F-83DD-A8AB904C9840}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{489DE2DA-302F-DA4C-B2C4-ED5D7CCA16C6}" name="doc_id"/>
     <tableColumn id="3" xr3:uid="{253D5FA6-C0D5-0148-B33E-3B2DE92512B7}" name="folder_id"/>
@@ -384,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -398,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -409,7 +424,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/db_source/doc_folder.xlsx
+++ b/data/db_source/doc_folder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0112417-6C06-CA4A-9A10-649A4194A210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB52D7C-0678-A14D-8106-6710F6CDA677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="500" windowWidth="16420" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>folder_id</t>
   </si>
   <si>
-    <t>folder_1_md</t>
-  </si>
-  <si>
     <t>doc_id</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>statpop_info</t>
+  </si>
+  <si>
+    <t>tourisme_exemple</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -421,34 +421,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
